--- a/uploads/default/contract.xlsx
+++ b/uploads/default/contract.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhichang/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/sites/bo/uploads/default/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,118 +27,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同标的额（元）</t>
-  </si>
-  <si>
-    <t>供应商/客户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目号</t>
-    <rPh sb="0" eb="1">
-      <t>xiang'mu'hao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <rPh sb="0" eb="1">
-      <t>xiang'mu</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>合同号</t>
+    <rPh sb="0" eb="1">
+      <t>wgmg</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>ming'cheng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商务工作流类别</t>
-    <rPh sb="0" eb="1">
-      <t>shang'wu</t>
+      <t>kgn</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <rPh sb="0" eb="1">
+      <t>ukuy</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <rPh sb="0" eb="1">
+      <t>gmwt</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>gong'zuo'liu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>lei'bie</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经理审核</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同签订时间</t>
-    <rPh sb="0" eb="1">
-      <t>he'tong</t>
+      <t>w</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同名称</t>
+    <rPh sb="0" eb="1">
+      <t>wgmg</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>qian'ding</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>81682017Q196</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新奥能源项目—NBU软件采购合同</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京亿飞成科技发展有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1703102X</t>
-  </si>
-  <si>
-    <t>新奥能源云服务协议</t>
-  </si>
-  <si>
-    <t>采购合同</t>
-  </si>
-  <si>
-    <t>81682017Q197</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新奥燃气工程廊坊分公司项目-GPU卡采购合同</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京东方森太科技发展有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1703155X</t>
-  </si>
-  <si>
-    <t>上海新智数能科技有限公司基础架构云服务协议</t>
+      <t>qktq</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收/支</t>
+    <rPh sb="0" eb="1">
+      <t>nhty</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fc</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方名称</t>
+    <rPh sb="0" eb="1">
+      <t>cfyy</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qktq</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约日期</t>
+    <rPh sb="0" eb="1">
+      <t>twxq</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jjad</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同金额</t>
+    <rPh sb="0" eb="1">
+      <t>wgmg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qqpt</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>记账月</t>
+    <rPh sb="0" eb="1">
+      <t>ji'zhang'yue</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>81682016L047</t>
+  </si>
+  <si>
+    <t>销售部</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'shou'bu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔建</t>
+  </si>
+  <si>
+    <t>新奥能源基础架构技术服务协议2016年Q2服务项目</t>
+  </si>
+  <si>
+    <t>收入</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ru</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新奥（中国）燃气投资有限公司</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>说明</t>
+    <rPh sb="0" eb="1">
+      <t>shuo'm</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,11 +168,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -164,17 +183,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="STXihei"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -187,13 +211,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,71 +232,56 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -556,117 +565,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9">
-        <v>385800</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="6">
+        <v>42461</v>
+      </c>
+      <c r="H2" s="7">
+        <v>4963386.4400000004</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="10">
-        <v>42969</v>
-      </c>
-      <c r="J2" s="11">
-        <v>42971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9">
-        <v>3200</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="10">
-        <v>42969</v>
-      </c>
-      <c r="J3" s="11">
-        <v>42971</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"采购合同,销售合同"</formula1>
     </dataValidation>
   </dataValidations>
